--- a/ReactionGame/Wahrscheinlichkeiten_Items.xlsx
+++ b/ReactionGame/Wahrscheinlichkeiten_Items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\Repos\2023-processing-fortgeschrittenenkurs-samstag\ReactionGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{965BC713-2DD0-4C2B-AE89-873B240F4EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BEB08F-5A62-42C6-BCCC-FD4931398939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{EF13910D-7E3A-43B7-AF04-E4504856CF1B}"/>
+    <workbookView xWindow="6000" yWindow="0" windowWidth="13200" windowHeight="10340" xr2:uid="{EF13910D-7E3A-43B7-AF04-E4504856CF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Mappe1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Rundenzahl</t>
   </si>
@@ -50,21 +50,12 @@
     <t>Medikit</t>
   </si>
   <si>
-    <t>0 - 50</t>
-  </si>
-  <si>
     <t>große Bombe</t>
   </si>
   <si>
     <t>Container</t>
   </si>
   <si>
-    <t>51 - 100</t>
-  </si>
-  <si>
-    <t>101 - 150</t>
-  </si>
-  <si>
     <t>Feste Patterns</t>
   </si>
   <si>
@@ -129,6 +120,21 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>0 - 25</t>
+  </si>
+  <si>
+    <t>26-50</t>
+  </si>
+  <si>
+    <t>51-75</t>
+  </si>
+  <si>
+    <t>76-100</t>
+  </si>
+  <si>
+    <t>100+</t>
   </si>
 </sst>
 </file>
@@ -152,12 +158,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF78D8D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -172,16 +196,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF78D8D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -492,109 +524,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5601F5B4-3934-4B82-A7B6-520A33C44647}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
     <col min="5" max="5" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="12.90625" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" customWidth="1"/>
+    <col min="9" max="9" width="8.90625" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="H2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
         <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>0.5</v>
@@ -606,55 +641,55 @@
         <v>0.13</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="1">
-        <f>SUM(B4:N4)</f>
+      <c r="L4" s="1">
+        <f>SUM(B4:K4)</f>
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="M4">
         <v>1</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="C5" s="1">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="D5" s="1">
         <v>0.08</v>
@@ -663,38 +698,38 @@
         <v>0.1</v>
       </c>
       <c r="F5" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="P5" s="1">
-        <f>SUM($B5:$N5)</f>
+      <c r="L5" s="1">
+        <f t="shared" ref="L5:L8" si="0">SUM(B5:K5)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="Q5">
+      <c r="M5">
         <v>1.1000000000000001</v>
       </c>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="C6" s="1">
         <v>0.1</v>
@@ -703,7 +738,7 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="1">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="F6" s="1">
         <v>0.05</v>
@@ -721,34 +756,106 @@
         <v>0.05</v>
       </c>
       <c r="K6" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" ref="P6:P7" si="0">SUM($B6:$N6)</f>
-        <v>1</v>
-      </c>
-      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="M6">
         <v>1.25</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="P7" s="1">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
         <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="M7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="Q7">
-        <v>1.5</v>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
